--- a/Measurements/Data sheet.xlsx
+++ b/Measurements/Data sheet.xlsx
@@ -5,16 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msztr\OneDrive\Documents\GitHub\VeriGudGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msztr\OneDrive\Documents\Milán_munkái\Iskola\Fizika\IYPT_2024\6. Non-contact Resistance\Mérések\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C25A3C-BF66-4B05-9EAF-8BE87C56F0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5C5A4B-5628-4788-8240-9F88623CCFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cores" sheetId="1" r:id="rId1"/>
     <sheet name="Illustration" sheetId="2" r:id="rId2"/>
+    <sheet name="Voltage" sheetId="3" r:id="rId3"/>
+    <sheet name="Parameters" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="70">
   <si>
     <t>Meas. no</t>
   </si>
@@ -91,6 +93,9 @@
     <t>no</t>
   </si>
   <si>
+    <t>95?</t>
+  </si>
+  <si>
     <t>hole 1</t>
   </si>
   <si>
@@ -110,13 +115,136 @@
   </si>
   <si>
     <t>50 MS</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>273 pF</t>
+  </si>
+  <si>
+    <t>1 uF</t>
+  </si>
+  <si>
+    <t>1,93 uF</t>
+  </si>
+  <si>
+    <t>492 nF</t>
+  </si>
+  <si>
+    <t>89,6 nF</t>
+  </si>
+  <si>
+    <t>4,71 nF</t>
+  </si>
+  <si>
+    <t>350 pF</t>
+  </si>
+  <si>
+    <t>6 (y)</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>5 us</t>
+  </si>
+  <si>
+    <t>10 us</t>
+  </si>
+  <si>
+    <t>total t</t>
+  </si>
+  <si>
+    <t>152 us</t>
+  </si>
+  <si>
+    <t>76 us</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>6 (yellow)</t>
+  </si>
+  <si>
+    <t>485 k</t>
+  </si>
+  <si>
+    <t>4,71 n</t>
+  </si>
+  <si>
+    <t>350 p</t>
+  </si>
+  <si>
+    <t>89,6 n</t>
+  </si>
+  <si>
+    <t>492 n</t>
+  </si>
+  <si>
+    <t>1 u</t>
+  </si>
+  <si>
+    <t>1,93 u</t>
+  </si>
+  <si>
+    <t>2,02 u</t>
+  </si>
+  <si>
+    <t>1,04 u</t>
+  </si>
+  <si>
+    <t>510 n</t>
+  </si>
+  <si>
+    <t>95 n</t>
+  </si>
+  <si>
+    <t>DemLab</t>
+  </si>
+  <si>
+    <t>Multi</t>
+  </si>
+  <si>
+    <t>5,06 n</t>
+  </si>
+  <si>
+    <t>300p</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>220 p</t>
+  </si>
+  <si>
+    <t>330 p</t>
+  </si>
+  <si>
+    <t>4,7 n</t>
+  </si>
+  <si>
+    <t>100 n</t>
+  </si>
+  <si>
+    <t>470 n</t>
+  </si>
+  <si>
+    <t>2,2 u</t>
+  </si>
+  <si>
+    <t>500 k</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +261,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -179,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -194,6 +329,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -476,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:P40"/>
+  <dimension ref="B2:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -488,35 +626,36 @@
     <col min="3" max="6" width="6.6328125" customWidth="1"/>
     <col min="7" max="7" width="8.90625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="8.6328125" customWidth="1"/>
-    <col min="12" max="12" width="9.1796875" customWidth="1"/>
-    <col min="13" max="15" width="8.6328125" customWidth="1"/>
+    <col min="9" max="10" width="11.7265625" customWidth="1"/>
+    <col min="11" max="13" width="8.6328125" customWidth="1"/>
+    <col min="14" max="14" width="9.1796875" customWidth="1"/>
+    <col min="15" max="17" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="I2" s="3">
+    <row r="2" spans="2:22" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K2" s="3">
         <v>1000</v>
       </c>
-      <c r="J2" s="3">
+      <c r="L2" s="3">
         <v>500</v>
-      </c>
-      <c r="K2" s="3">
-        <v>200</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="M2" s="3">
         <v>200</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="3">
+        <v>200</v>
+      </c>
+      <c r="P2" s="3">
         <v>500</v>
       </c>
-      <c r="O2" s="3">
+      <c r="Q2" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -536,31 +675,46 @@
         <v>3</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="2:16" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="T3" s="6">
+        <v>1</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -580,31 +734,46 @@
         <v>5</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="2">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="2">
+        <v>40</v>
+      </c>
+      <c r="L4" s="2">
         <v>66</v>
       </c>
-      <c r="K4" s="2">
+      <c r="M4" s="2">
         <v>70</v>
       </c>
-      <c r="L4" s="2">
+      <c r="N4" s="2">
         <v>73</v>
       </c>
-      <c r="M4" s="2">
+      <c r="O4" s="2">
         <v>76</v>
       </c>
-      <c r="N4" s="2">
+      <c r="P4" s="2">
         <v>78</v>
       </c>
-      <c r="O4" s="2">
+      <c r="Q4" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="2:16" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="T4" s="6">
+        <v>2</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -624,31 +793,46 @@
         <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="2">
+        <v>27</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="2">
+        <v>40</v>
+      </c>
+      <c r="L5" s="2">
         <v>66</v>
       </c>
-      <c r="K5" s="2">
+      <c r="M5" s="2">
         <v>70</v>
       </c>
-      <c r="L5" s="2">
+      <c r="N5" s="2">
         <v>73</v>
       </c>
-      <c r="M5" s="2">
+      <c r="O5" s="2">
         <v>76</v>
       </c>
-      <c r="N5" s="2">
+      <c r="P5" s="2">
         <v>78</v>
       </c>
-      <c r="O5" s="2">
+      <c r="Q5" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="2:16" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="T5" s="6">
+        <v>3</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -668,34 +852,49 @@
         <v>5</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="2">
+        <v>27</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="2">
+        <v>40</v>
+      </c>
+      <c r="L6" s="2">
         <v>66</v>
       </c>
-      <c r="K6" s="2">
+      <c r="M6" s="2">
         <v>70</v>
       </c>
-      <c r="L6" s="2">
+      <c r="N6" s="2">
         <v>73</v>
       </c>
-      <c r="M6" s="2">
+      <c r="O6" s="2">
         <v>76</v>
       </c>
-      <c r="N6" s="2">
+      <c r="P6" s="2">
         <v>78</v>
       </c>
-      <c r="O6" s="2">
+      <c r="Q6" s="2">
         <v>110</v>
       </c>
-      <c r="P6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="R6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T6" s="6">
+        <v>4</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -715,34 +914,49 @@
         <v>5</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="2">
+        <v>27</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="2">
+        <v>40</v>
+      </c>
+      <c r="L7" s="2">
         <v>66</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>70</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>72.8</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>76</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>78</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>110</v>
       </c>
-      <c r="P7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="R7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T7" s="6">
+        <v>5</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B8" s="2">
         <v>5</v>
       </c>
@@ -762,34 +976,49 @@
         <v>5</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="2">
+        <v>27</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="2">
+        <v>40</v>
+      </c>
+      <c r="L8" s="2">
         <v>66</v>
       </c>
-      <c r="K8" s="2">
+      <c r="M8" s="2">
         <v>70</v>
       </c>
-      <c r="L8" s="2">
+      <c r="N8" s="2">
         <v>72.8</v>
       </c>
-      <c r="M8" s="2">
+      <c r="O8" s="2">
         <v>76</v>
       </c>
-      <c r="N8" s="2">
+      <c r="P8" s="2">
         <v>78</v>
       </c>
-      <c r="O8" s="2">
+      <c r="Q8" s="2">
         <v>110</v>
       </c>
-      <c r="P8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="R8" t="s">
+        <v>25</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B9" s="2">
         <v>6</v>
       </c>
@@ -809,34 +1038,49 @@
         <v>5</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="2">
+        <v>27</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="2">
+        <v>40</v>
+      </c>
+      <c r="L9" s="2">
         <v>66</v>
       </c>
-      <c r="K9" s="2">
+      <c r="M9" s="2">
         <v>70</v>
       </c>
-      <c r="L9" s="2">
+      <c r="N9" s="2">
         <v>72.8</v>
       </c>
-      <c r="M9" s="2">
+      <c r="O9" s="2">
         <v>76</v>
       </c>
-      <c r="N9" s="2">
+      <c r="P9" s="2">
         <v>78</v>
       </c>
-      <c r="O9" s="2">
+      <c r="Q9" s="2">
         <v>110</v>
       </c>
-      <c r="P9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="R9" t="s">
+        <v>25</v>
+      </c>
+      <c r="T9" s="6">
+        <v>7</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B10" s="2">
         <v>7</v>
       </c>
@@ -856,31 +1100,46 @@
         <v>5</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="2">
+        <v>27</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="2">
         <v>30</v>
       </c>
-      <c r="J10" s="2">
+      <c r="L10" s="2">
         <v>54</v>
       </c>
-      <c r="K10" s="2">
+      <c r="M10" s="2">
         <v>56</v>
       </c>
-      <c r="L10" s="2">
+      <c r="N10" s="2">
         <v>59</v>
       </c>
-      <c r="M10" s="2">
+      <c r="O10" s="2">
         <v>62</v>
       </c>
-      <c r="N10" s="2">
+      <c r="P10" s="2">
         <v>64</v>
       </c>
-      <c r="O10" s="2">
+      <c r="Q10" s="2">
         <v>95</v>
       </c>
-    </row>
-    <row r="11" spans="2:16" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="T10" s="6">
+        <v>17</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="V10" s="6">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B11" s="2">
         <v>8</v>
       </c>
@@ -900,31 +1159,49 @@
         <v>5</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="2">
+        <v>27</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="2">
         <v>30</v>
       </c>
-      <c r="J11" s="2">
+      <c r="L11" s="2">
         <v>54</v>
       </c>
-      <c r="K11" s="2">
+      <c r="M11" s="2">
         <v>56</v>
       </c>
-      <c r="L11" s="2">
+      <c r="N11" s="2">
         <v>59</v>
       </c>
-      <c r="M11" s="2">
+      <c r="O11" s="2">
         <v>62</v>
       </c>
-      <c r="N11" s="2">
+      <c r="P11" s="2">
         <v>64</v>
       </c>
-      <c r="O11" s="2">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="Q11" s="2">
+        <v>100</v>
+      </c>
+      <c r="R11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T11" s="6">
+        <v>21</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="V11" s="6">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B12" s="2">
         <v>9</v>
       </c>
@@ -944,31 +1221,40 @@
         <v>5</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="2">
+        <v>27</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="2">
         <v>30</v>
       </c>
-      <c r="J12" s="2">
+      <c r="L12" s="2">
         <v>54</v>
       </c>
-      <c r="K12" s="2">
+      <c r="M12" s="2">
         <v>56</v>
       </c>
-      <c r="L12" s="2">
+      <c r="N12" s="2">
         <v>60</v>
       </c>
-      <c r="M12" s="2">
+      <c r="O12" s="2">
         <v>62</v>
       </c>
-      <c r="N12" s="2">
+      <c r="P12" s="2">
         <v>64</v>
       </c>
-      <c r="O12" s="2">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="Q12" s="2">
+        <v>100</v>
+      </c>
+      <c r="R12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B13" s="2">
         <v>10</v>
       </c>
@@ -986,31 +1272,37 @@
         <v>5</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="2">
+        <v>28</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="2">
         <v>30</v>
       </c>
-      <c r="J13" s="2">
+      <c r="L13" s="2">
         <v>53</v>
       </c>
-      <c r="K13" s="2">
+      <c r="M13" s="2">
         <v>55</v>
       </c>
-      <c r="L13" s="2">
+      <c r="N13" s="2">
         <v>58.1</v>
       </c>
-      <c r="M13" s="2">
+      <c r="O13" s="2">
         <v>61</v>
       </c>
-      <c r="N13" s="2">
+      <c r="P13" s="2">
         <v>63</v>
       </c>
-      <c r="O13" s="2">
+      <c r="Q13" s="2">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1025,8 +1317,10 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="2:16" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1041,8 +1335,10 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="2:16" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1057,8 +1353,10 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="2:15" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="2:17" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1073,8 +1371,10 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="2:15" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="2:17" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1089,8 +1389,10 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-    </row>
-    <row r="19" spans="2:15" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="2:17" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1105,8 +1407,10 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-    </row>
-    <row r="20" spans="2:15" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="2:17" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1121,8 +1425,10 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1137,8 +1443,10 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1153,8 +1461,10 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1169,8 +1479,10 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1185,8 +1497,10 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1201,8 +1515,10 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1217,8 +1533,10 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1233,8 +1551,10 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1249,8 +1569,10 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1265,8 +1587,10 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1281,8 +1605,10 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1297,8 +1623,10 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1313,8 +1641,10 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1329,8 +1659,10 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1345,8 +1677,10 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1361,8 +1695,10 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1377,8 +1713,10 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1393,8 +1731,10 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1402,8 +1742,10 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1411,8 +1753,10 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1420,6 +1764,8 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1462,13 +1808,13 @@
         <v>3</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
@@ -2099,4 +2445,416 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B0BD9E-5D10-49B6-B134-858F482CEB05}">
+  <dimension ref="B2:O6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1796875" customWidth="1"/>
+    <col min="4" max="4" width="6.81640625" customWidth="1"/>
+    <col min="5" max="5" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I2" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J2" s="3">
+        <v>500</v>
+      </c>
+      <c r="K2" s="3">
+        <v>200</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="3">
+        <v>200</v>
+      </c>
+      <c r="N2" s="3">
+        <v>500</v>
+      </c>
+      <c r="O2" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="2">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2">
+        <v>54</v>
+      </c>
+      <c r="K4" s="2">
+        <v>56</v>
+      </c>
+      <c r="L4" s="2">
+        <v>59</v>
+      </c>
+      <c r="M4" s="2">
+        <v>62</v>
+      </c>
+      <c r="N4" s="2">
+        <v>64</v>
+      </c>
+      <c r="O4" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="2">
+        <v>30</v>
+      </c>
+      <c r="J5" s="2">
+        <v>54</v>
+      </c>
+      <c r="K5" s="2">
+        <v>56</v>
+      </c>
+      <c r="L5" s="2">
+        <v>59</v>
+      </c>
+      <c r="M5" s="2">
+        <v>62</v>
+      </c>
+      <c r="N5" s="2">
+        <v>64</v>
+      </c>
+      <c r="O5" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="2">
+        <v>30</v>
+      </c>
+      <c r="J6" s="2">
+        <v>54</v>
+      </c>
+      <c r="K6" s="2">
+        <v>56</v>
+      </c>
+      <c r="L6" s="2">
+        <v>59</v>
+      </c>
+      <c r="M6" s="2">
+        <v>62</v>
+      </c>
+      <c r="N6" s="2">
+        <v>64</v>
+      </c>
+      <c r="O6" s="2">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7651777-90D4-4482-AA6B-EAF6C9D60DDB}">
+  <dimension ref="B2:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>286</v>
+      </c>
+      <c r="F11">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <v>1034</v>
+      </c>
+      <c r="F12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Measurements/Data sheet.xlsx
+++ b/Measurements/Data sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msztr\OneDrive\Documents\Milán_munkái\Iskola\Fizika\IYPT_2024\6. Non-contact Resistance\Mérések\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msztr\OneDrive\Documents\GitHub\VeriGudGame\Measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5C5A4B-5628-4788-8240-9F88623CCFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0422EB0-BEB6-4A44-974C-6467517B128F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cores" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,26 @@
     <sheet name="Voltage" sheetId="3" r:id="rId3"/>
     <sheet name="Parameters" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="68">
   <si>
     <t>Meas. no</t>
   </si>
@@ -93,9 +102,6 @@
     <t>no</t>
   </si>
   <si>
-    <t>95?</t>
-  </si>
-  <si>
     <t>hole 1</t>
   </si>
   <si>
@@ -103,9 +109,6 @@
   </si>
   <si>
     <t>f</t>
-  </si>
-  <si>
-    <t>100?</t>
   </si>
   <si>
     <t>samp rate</t>
@@ -616,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:V40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -675,13 +678,13 @@
         <v>3</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>12</v>
@@ -708,10 +711,10 @@
         <v>1</v>
       </c>
       <c r="U3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
@@ -734,13 +737,13 @@
         <v>5</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K4" s="2">
         <v>40</v>
@@ -767,10 +770,10 @@
         <v>2</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
@@ -793,19 +796,19 @@
         <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K5" s="2">
         <v>40</v>
       </c>
       <c r="L5" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M5" s="2">
         <v>70</v>
@@ -826,10 +829,10 @@
         <v>3</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V5" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
@@ -852,19 +855,19 @@
         <v>5</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K6" s="2">
         <v>40</v>
       </c>
       <c r="L6" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M6" s="2">
         <v>70</v>
@@ -879,19 +882,16 @@
         <v>78</v>
       </c>
       <c r="Q6" s="2">
-        <v>110</v>
-      </c>
-      <c r="R6" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T6" s="6">
         <v>4</v>
       </c>
       <c r="U6" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V6" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
@@ -914,19 +914,19 @@
         <v>5</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K7" s="2">
         <v>40</v>
       </c>
       <c r="L7" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M7" s="2">
         <v>70</v>
@@ -941,19 +941,16 @@
         <v>78</v>
       </c>
       <c r="Q7" s="2">
-        <v>110</v>
-      </c>
-      <c r="R7" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T7" s="6">
         <v>5</v>
       </c>
       <c r="U7" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V7" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
@@ -976,19 +973,19 @@
         <v>5</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K8" s="2">
         <v>40</v>
       </c>
       <c r="L8" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M8" s="2">
         <v>70</v>
@@ -1003,19 +1000,16 @@
         <v>78</v>
       </c>
       <c r="Q8" s="2">
-        <v>110</v>
-      </c>
-      <c r="R8" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T8" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="U8" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V8" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
@@ -1038,19 +1032,19 @@
         <v>5</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K9" s="2">
         <v>40</v>
       </c>
       <c r="L9" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M9" s="2">
         <v>70</v>
@@ -1065,19 +1059,16 @@
         <v>78</v>
       </c>
       <c r="Q9" s="2">
-        <v>110</v>
-      </c>
-      <c r="R9" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T9" s="6">
         <v>7</v>
       </c>
       <c r="U9" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V9" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
@@ -1100,13 +1091,13 @@
         <v>5</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K10" s="2">
         <v>30</v>
@@ -1133,7 +1124,7 @@
         <v>17</v>
       </c>
       <c r="U10" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V10" s="6">
         <v>263</v>
@@ -1159,13 +1150,13 @@
         <v>5</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K11" s="2">
         <v>30</v>
@@ -1186,16 +1177,13 @@
         <v>64</v>
       </c>
       <c r="Q11" s="2">
-        <v>100</v>
-      </c>
-      <c r="R11" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="T11" s="6">
         <v>21</v>
       </c>
       <c r="U11" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V11" s="6">
         <v>1035</v>
@@ -1221,13 +1209,13 @@
         <v>5</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K12" s="2">
         <v>30</v>
@@ -1248,10 +1236,7 @@
         <v>64</v>
       </c>
       <c r="Q12" s="2">
-        <v>100</v>
-      </c>
-      <c r="R12" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
@@ -1272,13 +1257,13 @@
         <v>5</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="K13" s="2">
         <v>30</v>
@@ -1808,13 +1793,13 @@
         <v>3</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
@@ -2508,7 +2493,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>12</v>
@@ -2552,7 +2537,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I4" s="2">
         <v>30</v>
@@ -2596,7 +2581,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I5" s="2">
         <v>30</v>
@@ -2640,7 +2625,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I6" s="2">
         <v>30</v>
@@ -2673,7 +2658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7651777-90D4-4482-AA6B-EAF6C9D60DDB}">
   <dimension ref="B2:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -2684,16 +2669,16 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.35">
@@ -2701,13 +2686,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
         <v>61</v>
-      </c>
-      <c r="F3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
@@ -2715,16 +2700,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
@@ -2732,16 +2717,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.35">
@@ -2749,16 +2734,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
@@ -2766,33 +2751,33 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
@@ -2800,16 +2785,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.35">
@@ -2817,7 +2802,7 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>286</v>
@@ -2831,7 +2816,7 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>1034</v>
@@ -2845,13 +2830,13 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Measurements/Data sheet.xlsx
+++ b/Measurements/Data sheet.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msztr\OneDrive\Documents\GitHub\VeriGudGame\Measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0422EB0-BEB6-4A44-974C-6467517B128F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7979D03-2787-4CB1-BE58-215F78961C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cores" sheetId="1" r:id="rId1"/>
     <sheet name="Illustration" sheetId="2" r:id="rId2"/>
     <sheet name="Voltage" sheetId="3" r:id="rId3"/>
     <sheet name="Parameters" sheetId="4" r:id="rId4"/>
+    <sheet name="Comparison" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="76">
   <si>
     <t>Meas. no</t>
   </si>
@@ -241,13 +242,37 @@
   </si>
   <si>
     <t>500 k</t>
+  </si>
+  <si>
+    <t>489 k</t>
+  </si>
+  <si>
+    <t>272 p</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Literature min</t>
+  </si>
+  <si>
+    <t>Literature max</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Measured values</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,8 +300,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,6 +323,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -337,6 +380,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -352,6 +412,1100 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25266447944006998"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.71677996500437446"/>
+          <c:h val="0.8657407407407407"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Literature</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Comparison!$G$3:$G$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>9.9999999999999995E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.9999999999999995E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.3554500000000001E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Comparison!$G$3:$G$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>9.9999999999999995E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.9999999999999995E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.3554500000000001E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Comparison!$B$3:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Al</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Comparison!$F$3:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.653E-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6779999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.49855E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF90-4BDE-A04D-57C2535FA9D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Measurements</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Comparison!$B$3:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Al</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Comparison!$C$3:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.9380000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9219999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.138E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AF90-4BDE-A04D-57C2535FA9D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1899339583"/>
+        <c:axId val="1852454799"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1899339583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="@" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1852454799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1852454799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4.0000000000000013E-4"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU" sz="1400">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Ratio of electromagnetic properties (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1400">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>μ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="hu-HU" sz="1400">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>r/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1400">
+                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>σ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="hu-HU" sz="1400">
+                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="hu-HU" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3888888888888888E-2"/>
+              <c:y val="0.13751531058617672"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1899339583"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5.0000000000000023E-5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>587375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>282575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B08A4D02-DC12-4CFC-BB4E-01D546560284}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -619,7 +1773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -2656,22 +3810,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7651777-90D4-4482-AA6B-EAF6C9D60DDB}">
-  <dimension ref="B2:F13"/>
+  <dimension ref="B2:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
         <v>56</v>
       </c>
       <c r="E2" t="s">
@@ -2681,165 +3835,342 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>44</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
       </c>
-      <c r="E11">
+      <c r="D11" s="8">
+        <v>289</v>
+      </c>
+      <c r="E11" s="9">
         <v>286</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="9">
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="E12">
+      <c r="D12" s="8">
+        <v>1041</v>
+      </c>
+      <c r="E12" s="9">
         <v>1034</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="9">
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="9" t="s">
         <v>67</v>
       </c>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="J14" s="11"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="J15" s="11"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="J16" s="11"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="10:12" x14ac:dyDescent="0.35">
+      <c r="J17" s="11"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="10:12" x14ac:dyDescent="0.35">
+      <c r="J18" s="11"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="10:12" x14ac:dyDescent="0.35">
+      <c r="J19" s="11"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="10:12" x14ac:dyDescent="0.35">
+      <c r="J20" s="11"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" spans="10:12" x14ac:dyDescent="0.35">
+      <c r="J21" s="11"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" spans="10:12" x14ac:dyDescent="0.35">
+      <c r="J22" s="11"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+    </row>
+    <row r="23" spans="10:12" x14ac:dyDescent="0.35">
+      <c r="J23" s="11"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+    </row>
+    <row r="24" spans="10:12" x14ac:dyDescent="0.35">
+      <c r="J24" s="11"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B0CC37-1D47-4EB4-93FB-BA222741883C}">
+  <dimension ref="B2:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1.9380000000000001E-5</v>
+      </c>
+      <c r="D3" s="12">
+        <v>2.653E-8</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="12">
+        <f>D3</f>
+        <v>2.653E-8</v>
+      </c>
+      <c r="G3" s="12">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1.9219999999999999E-5</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1.6779999999999999E-8</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="12">
+        <f>D4</f>
+        <v>1.6779999999999999E-8</v>
+      </c>
+      <c r="G4" s="12">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="12">
+        <v>4.138E-5</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1.431E-5</v>
+      </c>
+      <c r="E5" s="12">
+        <v>4.8539999999999998E-4</v>
+      </c>
+      <c r="F5" s="12">
+        <f t="shared" ref="F4:F5" si="0">(D5+E5)/2</f>
+        <v>2.49855E-4</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" ref="G4:G5" si="1">ABS(F5-D5)</f>
+        <v>2.3554500000000001E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Measurements/Data sheet.xlsx
+++ b/Measurements/Data sheet.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msztr\OneDrive\Documents\GitHub\VeriGudGame\Measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7979D03-2787-4CB1-BE58-215F78961C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D808B5-D67F-490C-B682-5B456078EA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cores" sheetId="1" r:id="rId1"/>
-    <sheet name="Illustration" sheetId="2" r:id="rId2"/>
-    <sheet name="Voltage" sheetId="3" r:id="rId3"/>
-    <sheet name="Parameters" sheetId="4" r:id="rId4"/>
-    <sheet name="Comparison" sheetId="5" r:id="rId5"/>
+    <sheet name="Capacitance" sheetId="6" r:id="rId2"/>
+    <sheet name="Resistance" sheetId="7" r:id="rId3"/>
+    <sheet name="Illustration" sheetId="2" r:id="rId4"/>
+    <sheet name="Voltage" sheetId="3" r:id="rId5"/>
+    <sheet name="Parameters" sheetId="4" r:id="rId6"/>
+    <sheet name="Comparison" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="77">
   <si>
     <t>Meas. no</t>
   </si>
@@ -266,6 +268,9 @@
   </si>
   <si>
     <t>Measured values</t>
+  </si>
+  <si>
+    <t>inductor</t>
   </si>
 </sst>
 </file>
@@ -360,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -380,7 +385,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -396,6 +400,12 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1774,7 +1784,7 @@
   <dimension ref="B2:V40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2914,6 +2924,542 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1908020-AE6B-4FD4-9239-799B43E455F2}">
+  <dimension ref="B2:V10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" customWidth="1"/>
+    <col min="5" max="5" width="7.453125" customWidth="1"/>
+    <col min="6" max="6" width="8.08984375" customWidth="1"/>
+    <col min="7" max="7" width="9.36328125" customWidth="1"/>
+    <col min="8" max="8" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:22" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K2" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L2" s="3">
+        <v>500</v>
+      </c>
+      <c r="M2" s="3">
+        <v>200</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="3">
+        <v>200</v>
+      </c>
+      <c r="P2" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="2">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="2">
+        <v>40</v>
+      </c>
+      <c r="L4" s="2">
+        <v>66</v>
+      </c>
+      <c r="M4" s="2">
+        <v>70</v>
+      </c>
+      <c r="N4" s="2">
+        <v>73</v>
+      </c>
+      <c r="O4" s="2">
+        <v>76</v>
+      </c>
+      <c r="P4" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>100</v>
+      </c>
+      <c r="T4" s="6">
+        <v>2</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="2">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="2">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="2">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A0C6C6-90CD-4ECA-AB9B-EE05D433A0EE}">
+  <dimension ref="B2:Q6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" customWidth="1"/>
+    <col min="4" max="4" width="7.36328125" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="11.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K2" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L2" s="3">
+        <v>500</v>
+      </c>
+      <c r="M2" s="3">
+        <v>200</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="3">
+        <v>200</v>
+      </c>
+      <c r="P2" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="2">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="2">
+        <v>40</v>
+      </c>
+      <c r="L4" s="2">
+        <v>66</v>
+      </c>
+      <c r="M4" s="2">
+        <v>70</v>
+      </c>
+      <c r="N4" s="2">
+        <v>73</v>
+      </c>
+      <c r="O4" s="2">
+        <v>76</v>
+      </c>
+      <c r="P4" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="2">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71979A5-6572-49D8-837E-7A6E1FC3BDBD}">
   <dimension ref="B2:I41"/>
   <sheetViews>
@@ -3586,7 +4132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B0BD9E-5D10-49B6-B134-858F482CEB05}">
   <dimension ref="B2:O6"/>
   <sheetViews>
@@ -3808,263 +4354,278 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7651777-90D4-4482-AA6B-EAF6C9D60DDB}">
   <dimension ref="B2:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B3">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B4">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B5">
+      <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B6">
+      <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B7">
+      <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B9">
+      <c r="B9" s="1">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B11">
+      <c r="B11" s="1">
         <v>17</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>289</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>286</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>250</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B12">
+      <c r="B12" s="1">
         <v>21</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>1041</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>1034</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>1000</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B13">
+      <c r="B13" s="1">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="10"/>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="J14" s="11"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
+      <c r="B14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="14">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8">
+        <v>15</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="J15" s="11"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="J16" s="11"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
     </row>
     <row r="17" spans="10:12" x14ac:dyDescent="0.35">
-      <c r="J17" s="11"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
     </row>
     <row r="18" spans="10:12" x14ac:dyDescent="0.35">
-      <c r="J18" s="11"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
     </row>
     <row r="19" spans="10:12" x14ac:dyDescent="0.35">
-      <c r="J19" s="11"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
     </row>
     <row r="20" spans="10:12" x14ac:dyDescent="0.35">
-      <c r="J20" s="11"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
     </row>
     <row r="21" spans="10:12" x14ac:dyDescent="0.35">
-      <c r="J21" s="11"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
     </row>
     <row r="22" spans="10:12" x14ac:dyDescent="0.35">
-      <c r="J22" s="11"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
     </row>
     <row r="23" spans="10:12" x14ac:dyDescent="0.35">
-      <c r="J23" s="11"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
     </row>
     <row r="24" spans="10:12" x14ac:dyDescent="0.35">
-      <c r="J24" s="11"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4072,11 +4633,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B0CC37-1D47-4EB4-93FB-BA222741883C}">
   <dimension ref="B2:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -4113,18 +4674,18 @@
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>1.9380000000000001E-5</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>2.653E-8</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="12">
+      <c r="E3" s="12"/>
+      <c r="F3" s="11">
         <f>D3</f>
         <v>2.653E-8</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
@@ -4132,18 +4693,18 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>1.9219999999999999E-5</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>1.6779999999999999E-8</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="12">
+      <c r="E4" s="12"/>
+      <c r="F4" s="11">
         <f>D4</f>
         <v>1.6779999999999999E-8</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
@@ -4151,21 +4712,21 @@
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>4.138E-5</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>1.431E-5</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>4.8539999999999998E-4</v>
       </c>
-      <c r="F5" s="12">
-        <f t="shared" ref="F4:F5" si="0">(D5+E5)/2</f>
+      <c r="F5" s="11">
+        <f t="shared" ref="F5" si="0">(D5+E5)/2</f>
         <v>2.49855E-4</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ref="G4:G5" si="1">ABS(F5-D5)</f>
+        <f t="shared" ref="G5" si="1">ABS(F5-D5)</f>
         <v>2.3554500000000001E-4</v>
       </c>
     </row>

--- a/Measurements/Data sheet.xlsx
+++ b/Measurements/Data sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msztr\OneDrive\Documents\GitHub\VeriGudGame\Measurements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msztr\OneDrive\Documents\Milán_munkái\Iskola\Fizika\IYPT_2024\6. Non-contact Resistance\Mérések\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D808B5-D67F-490C-B682-5B456078EA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B9D832-9FB6-4F8E-9B7B-A35309BCFA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Cores" sheetId="1" r:id="rId1"/>
     <sheet name="Capacitance" sheetId="6" r:id="rId2"/>
     <sheet name="Resistance" sheetId="7" r:id="rId3"/>
-    <sheet name="Illustration" sheetId="2" r:id="rId4"/>
+    <sheet name="Illustrations" sheetId="2" r:id="rId4"/>
     <sheet name="Voltage" sheetId="3" r:id="rId5"/>
     <sheet name="Parameters" sheetId="4" r:id="rId6"/>
     <sheet name="Comparison" sheetId="5" r:id="rId7"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="76">
   <si>
     <t>Meas. no</t>
   </si>
@@ -111,9 +111,6 @@
     <t>hole 2</t>
   </si>
   <si>
-    <t>f</t>
-  </si>
-  <si>
     <t>samp rate</t>
   </si>
   <si>
@@ -129,30 +126,6 @@
     <t>R</t>
   </si>
   <si>
-    <t>273 pF</t>
-  </si>
-  <si>
-    <t>1 uF</t>
-  </si>
-  <si>
-    <t>1,93 uF</t>
-  </si>
-  <si>
-    <t>492 nF</t>
-  </si>
-  <si>
-    <t>89,6 nF</t>
-  </si>
-  <si>
-    <t>4,71 nF</t>
-  </si>
-  <si>
-    <t>350 pF</t>
-  </si>
-  <si>
-    <t>6 (y)</t>
-  </si>
-  <si>
     <t>scale</t>
   </si>
   <si>
@@ -271,6 +244,30 @@
   </si>
   <si>
     <t>inductor</t>
+  </si>
+  <si>
+    <t>20 us</t>
+  </si>
+  <si>
+    <t>25 MS</t>
+  </si>
+  <si>
+    <t>skin effect, extra legth (high freq)</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>f kHz</t>
+  </si>
+  <si>
+    <t>f Hz</t>
+  </si>
+  <si>
+    <t>skin effect, coupling (low freq)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> us</t>
   </si>
 </sst>
 </file>
@@ -365,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -406,6 +403,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1784,7 +1787,7 @@
   <dimension ref="B2:V40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1842,13 +1845,13 @@
         <v>3</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>12</v>
@@ -1871,15 +1874,9 @@
       <c r="Q3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="6">
-        <v>1</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
     </row>
     <row r="4" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
@@ -1901,13 +1898,13 @@
         <v>5</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="K4" s="2">
         <v>40</v>
@@ -1930,15 +1927,9 @@
       <c r="Q4" s="2">
         <v>100</v>
       </c>
-      <c r="T4" s="6">
-        <v>2</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
     </row>
     <row r="5" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
@@ -1960,13 +1951,13 @@
         <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="K5" s="2">
         <v>40</v>
@@ -1989,15 +1980,9 @@
       <c r="Q5" s="2">
         <v>100</v>
       </c>
-      <c r="T5" s="6">
-        <v>3</v>
-      </c>
-      <c r="U5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
     </row>
     <row r="6" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B6" s="2">
@@ -2019,13 +2004,13 @@
         <v>5</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="K6" s="2">
         <v>40</v>
@@ -2048,15 +2033,9 @@
       <c r="Q6" s="2">
         <v>100</v>
       </c>
-      <c r="T6" s="6">
-        <v>4</v>
-      </c>
-      <c r="U6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="V6" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
     </row>
     <row r="7" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B7" s="2">
@@ -2078,13 +2057,13 @@
         <v>5</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="K7" s="2">
         <v>40</v>
@@ -2107,15 +2086,9 @@
       <c r="Q7" s="2">
         <v>100</v>
       </c>
-      <c r="T7" s="6">
-        <v>5</v>
-      </c>
-      <c r="U7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="V7" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
     </row>
     <row r="8" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B8" s="2">
@@ -2137,13 +2110,13 @@
         <v>5</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="K8" s="2">
         <v>40</v>
@@ -2166,15 +2139,9 @@
       <c r="Q8" s="2">
         <v>100</v>
       </c>
-      <c r="T8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="U8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="V8" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
     </row>
     <row r="9" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B9" s="2">
@@ -2196,13 +2163,13 @@
         <v>5</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="K9" s="2">
         <v>40</v>
@@ -2225,15 +2192,9 @@
       <c r="Q9" s="2">
         <v>100</v>
       </c>
-      <c r="T9" s="6">
-        <v>7</v>
-      </c>
-      <c r="U9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="V9" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
     </row>
     <row r="10" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B10" s="2">
@@ -2255,13 +2216,13 @@
         <v>5</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="K10" s="2">
         <v>30</v>
@@ -2284,15 +2245,9 @@
       <c r="Q10" s="2">
         <v>95</v>
       </c>
-      <c r="T10" s="6">
-        <v>17</v>
-      </c>
-      <c r="U10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="V10" s="6">
-        <v>263</v>
-      </c>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
     </row>
     <row r="11" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B11" s="2">
@@ -2314,13 +2269,13 @@
         <v>5</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="K11" s="2">
         <v>30</v>
@@ -2343,15 +2298,9 @@
       <c r="Q11" s="2">
         <v>95</v>
       </c>
-      <c r="T11" s="6">
-        <v>21</v>
-      </c>
-      <c r="U11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="V11" s="6">
-        <v>1035</v>
-      </c>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
     </row>
     <row r="12" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B12" s="2">
@@ -2373,13 +2322,13 @@
         <v>5</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="K12" s="2">
         <v>30</v>
@@ -2421,13 +2370,13 @@
         <v>5</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="K13" s="2">
         <v>30</v>
@@ -2925,10 +2874,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1908020-AE6B-4FD4-9239-799B43E455F2}">
-  <dimension ref="B2:V10"/>
+  <dimension ref="B2:V15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2941,6 +2890,7 @@
     <col min="7" max="7" width="9.36328125" customWidth="1"/>
     <col min="8" max="8" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.26953125" customWidth="1"/>
+    <col min="14" max="14" width="9.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2986,13 +2936,13 @@
         <v>3</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>12</v>
@@ -3027,7 +2977,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>6</v>
@@ -3036,25 +2986,25 @@
         <v>5</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="K4" s="2">
         <v>40</v>
       </c>
       <c r="L4" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M4" s="2">
         <v>70</v>
       </c>
       <c r="N4" s="2">
-        <v>73</v>
+        <v>72.8</v>
       </c>
       <c r="O4" s="2">
         <v>76</v>
@@ -3065,15 +3015,9 @@
       <c r="Q4" s="2">
         <v>100</v>
       </c>
-      <c r="T4" s="6">
-        <v>2</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
     </row>
     <row r="5" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
@@ -3086,7 +3030,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>6</v>
@@ -3095,13 +3039,34 @@
         <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
+      </c>
+      <c r="K5" s="2">
+        <v>30</v>
+      </c>
+      <c r="L5" s="2">
+        <v>58</v>
+      </c>
+      <c r="M5" s="2">
+        <v>60</v>
+      </c>
+      <c r="N5" s="2">
+        <v>63</v>
+      </c>
+      <c r="O5" s="2">
+        <v>66</v>
+      </c>
+      <c r="P5" s="2">
+        <v>68</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
@@ -3115,7 +3080,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>6</v>
@@ -3124,13 +3089,34 @@
         <v>5</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>42</v>
+        <v>75</v>
+      </c>
+      <c r="K6" s="2">
+        <v>8</v>
+      </c>
+      <c r="L6" s="2">
+        <v>8</v>
+      </c>
+      <c r="M6" s="2">
+        <v>14</v>
+      </c>
+      <c r="N6" s="2">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="O6" s="2">
+        <v>23</v>
+      </c>
+      <c r="P6" s="2">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
@@ -3141,7 +3127,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
@@ -3153,13 +3139,34 @@
         <v>5</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
+      </c>
+      <c r="K7" s="2">
+        <v>40</v>
+      </c>
+      <c r="L7" s="2">
+        <v>66</v>
+      </c>
+      <c r="M7" s="2">
+        <v>70</v>
+      </c>
+      <c r="N7" s="2">
+        <v>73</v>
+      </c>
+      <c r="O7" s="2">
+        <v>76</v>
+      </c>
+      <c r="P7" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
@@ -3170,7 +3177,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
@@ -3182,13 +3189,34 @@
         <v>5</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
+      </c>
+      <c r="K8" s="2">
+        <v>30</v>
+      </c>
+      <c r="L8" s="2">
+        <v>59</v>
+      </c>
+      <c r="M8" s="2">
+        <v>61</v>
+      </c>
+      <c r="N8" s="2">
+        <v>63.5</v>
+      </c>
+      <c r="O8" s="2">
+        <v>66</v>
+      </c>
+      <c r="P8" s="2">
+        <v>68</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
@@ -3199,7 +3227,7 @@
         <v>17</v>
       </c>
       <c r="D9" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>7</v>
@@ -3211,13 +3239,34 @@
         <v>5</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>42</v>
+        <v>75</v>
+      </c>
+      <c r="K9" s="2">
+        <v>8</v>
+      </c>
+      <c r="L9" s="2">
+        <v>8</v>
+      </c>
+      <c r="M9" s="2">
+        <v>14</v>
+      </c>
+      <c r="N9" s="2">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="O9" s="2">
+        <v>23</v>
+      </c>
+      <c r="P9" s="2">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
@@ -3228,10 +3277,10 @@
         <v>17</v>
       </c>
       <c r="D10" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>6</v>
@@ -3240,13 +3289,281 @@
         <v>5</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="2">
+        <v>30</v>
+      </c>
+      <c r="L10" s="2">
+        <v>54</v>
+      </c>
+      <c r="M10" s="2">
+        <v>56</v>
+      </c>
+      <c r="N10" s="2">
+        <v>59</v>
+      </c>
+      <c r="O10" s="2">
+        <v>62</v>
+      </c>
+      <c r="P10" s="2">
+        <v>64</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>95</v>
+      </c>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+    </row>
+    <row r="11" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="2">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>42</v>
+      <c r="I11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="2">
+        <v>20</v>
+      </c>
+      <c r="L11" s="2">
+        <v>45</v>
+      </c>
+      <c r="M11" s="2">
+        <v>47</v>
+      </c>
+      <c r="N11" s="2">
+        <v>50</v>
+      </c>
+      <c r="O11" s="2">
+        <v>53</v>
+      </c>
+      <c r="P11" s="2">
+        <v>55</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="2">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="2">
+        <v>7</v>
+      </c>
+      <c r="L12" s="2">
+        <v>7</v>
+      </c>
+      <c r="M12" s="2">
+        <v>7</v>
+      </c>
+      <c r="N12" s="2">
+        <v>12.7</v>
+      </c>
+      <c r="O12" s="2">
+        <v>18</v>
+      </c>
+      <c r="P12" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="2">
+        <v>30</v>
+      </c>
+      <c r="L13" s="2">
+        <v>53</v>
+      </c>
+      <c r="M13" s="2">
+        <v>55</v>
+      </c>
+      <c r="N13" s="2">
+        <v>58.1</v>
+      </c>
+      <c r="O13" s="2">
+        <v>61</v>
+      </c>
+      <c r="P13" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2">
+        <v>5</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="2">
+        <v>20</v>
+      </c>
+      <c r="L14" s="2">
+        <v>46</v>
+      </c>
+      <c r="M14" s="2">
+        <v>48</v>
+      </c>
+      <c r="N14" s="2">
+        <v>50.7</v>
+      </c>
+      <c r="O14" s="2">
+        <v>54</v>
+      </c>
+      <c r="P14" s="2">
+        <v>56</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2">
+        <v>5</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" s="2">
+        <v>8</v>
+      </c>
+      <c r="L15" s="2">
+        <v>8</v>
+      </c>
+      <c r="M15" s="2">
+        <v>10</v>
+      </c>
+      <c r="N15" s="2">
+        <v>15</v>
+      </c>
+      <c r="O15" s="2">
+        <v>21</v>
+      </c>
+      <c r="P15" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3257,10 +3574,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A0C6C6-90CD-4ECA-AB9B-EE05D433A0EE}">
-  <dimension ref="B2:Q6"/>
+  <dimension ref="B2:V15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3273,7 +3590,7 @@
     <col min="8" max="8" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:22" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K2" s="3">
         <v>1000</v>
       </c>
@@ -3296,7 +3613,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -3316,13 +3633,13 @@
         <v>3</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>12</v>
@@ -3346,7 +3663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -3357,7 +3674,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>6</v>
@@ -3366,25 +3683,25 @@
         <v>5</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="K4" s="2">
         <v>40</v>
       </c>
       <c r="L4" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M4" s="2">
         <v>70</v>
       </c>
       <c r="N4" s="2">
-        <v>73</v>
+        <v>72.8</v>
       </c>
       <c r="O4" s="2">
         <v>76</v>
@@ -3396,18 +3713,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>6</v>
@@ -3416,27 +3733,48 @@
         <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" ht="18.5" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="K5" s="2">
+        <v>40</v>
+      </c>
+      <c r="L5" s="2">
+        <v>67</v>
+      </c>
+      <c r="M5" s="2">
+        <v>69</v>
+      </c>
+      <c r="N5" s="2">
+        <v>72</v>
+      </c>
+      <c r="O5" s="2">
+        <v>75</v>
+      </c>
+      <c r="P5" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B6" s="2">
         <v>3</v>
       </c>
       <c r="C6" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>6</v>
@@ -3445,26 +3783,475 @@
         <v>5</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="2">
+        <v>40</v>
+      </c>
+      <c r="L6" s="2">
+        <v>67</v>
+      </c>
+      <c r="M6" s="2">
+        <v>69</v>
+      </c>
+      <c r="N6" s="2">
+        <v>72</v>
+      </c>
+      <c r="O6" s="2">
+        <v>75</v>
+      </c>
+      <c r="P6" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="2">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="2">
+        <v>40</v>
+      </c>
+      <c r="L7" s="2">
+        <v>68</v>
+      </c>
+      <c r="M7" s="2">
+        <v>70</v>
+      </c>
+      <c r="N7" s="2">
+        <v>73</v>
+      </c>
+      <c r="O7" s="2">
+        <v>76</v>
+      </c>
+      <c r="P7" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>100</v>
+      </c>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+    </row>
+    <row r="8" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="2">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="2">
+        <v>40</v>
+      </c>
+      <c r="L9" s="2">
+        <v>66</v>
+      </c>
+      <c r="M9" s="2">
+        <v>70</v>
+      </c>
+      <c r="N9" s="2">
+        <v>73</v>
+      </c>
+      <c r="O9" s="2">
+        <v>76</v>
+      </c>
+      <c r="P9" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="2">
+        <v>30</v>
+      </c>
+      <c r="L10" s="2">
+        <v>54</v>
+      </c>
+      <c r="M10" s="2">
+        <v>56</v>
+      </c>
+      <c r="N10" s="2">
+        <v>59</v>
+      </c>
+      <c r="O10" s="2">
+        <v>62</v>
+      </c>
+      <c r="P10" s="2">
+        <v>64</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>95</v>
+      </c>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+    </row>
+    <row r="11" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="2">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="2">
+        <v>30</v>
+      </c>
+      <c r="L11" s="2">
+        <v>54</v>
+      </c>
+      <c r="M11" s="2">
+        <v>56</v>
+      </c>
+      <c r="N11" s="2">
+        <v>59</v>
+      </c>
+      <c r="O11" s="2">
+        <v>62</v>
+      </c>
+      <c r="P11" s="2">
+        <v>64</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="2">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="2">
+        <v>30</v>
+      </c>
+      <c r="L12" s="2">
+        <v>53</v>
+      </c>
+      <c r="M12" s="2">
+        <v>55</v>
+      </c>
+      <c r="N12" s="2">
+        <v>58</v>
+      </c>
+      <c r="O12" s="2">
+        <v>61</v>
+      </c>
+      <c r="P12" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>42</v>
+      <c r="I13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="2">
+        <v>30</v>
+      </c>
+      <c r="L13" s="2">
+        <v>53</v>
+      </c>
+      <c r="M13" s="2">
+        <v>55</v>
+      </c>
+      <c r="N13" s="2">
+        <v>58.1</v>
+      </c>
+      <c r="O13" s="2">
+        <v>61</v>
+      </c>
+      <c r="P13" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2">
+        <v>20</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="2">
+        <v>5</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="2">
+        <v>30</v>
+      </c>
+      <c r="L14" s="2">
+        <v>53</v>
+      </c>
+      <c r="M14" s="2">
+        <v>55</v>
+      </c>
+      <c r="N14" s="2">
+        <v>58.1</v>
+      </c>
+      <c r="O14" s="2">
+        <v>61</v>
+      </c>
+      <c r="P14" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2">
+        <v>21</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="2">
+        <v>5</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="2">
+        <v>30</v>
+      </c>
+      <c r="L15" s="2">
+        <v>53</v>
+      </c>
+      <c r="M15" s="2">
+        <v>55</v>
+      </c>
+      <c r="N15" s="2">
+        <v>58.1</v>
+      </c>
+      <c r="O15" s="2">
+        <v>61</v>
+      </c>
+      <c r="P15" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71979A5-6572-49D8-837E-7A6E1FC3BDBD}">
-  <dimension ref="B2:I41"/>
+  <dimension ref="B2:R42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3474,63 +4261,86 @@
     <col min="6" max="6" width="8.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.90625" customWidth="1"/>
     <col min="8" max="9" width="8.6328125" customWidth="1"/>
+    <col min="11" max="11" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.54296875" customWidth="1"/>
+    <col min="13" max="13" width="7.1796875" customWidth="1"/>
+    <col min="14" max="14" width="8.26953125" customWidth="1"/>
+    <col min="15" max="15" width="7.36328125" customWidth="1"/>
+    <col min="17" max="17" width="6.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:18" s="2" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="K2" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="15"/>
+    </row>
+    <row r="3" spans="2:18" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="G3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="2">
+      <c r="K3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="M3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="2">
         <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2">
-        <v>5</v>
-      </c>
-      <c r="G3" s="2">
-        <v>80</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="2">
-        <v>2</v>
       </c>
       <c r="C4" s="2">
         <v>17</v>
@@ -3548,15 +4358,36 @@
         <v>80</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>17</v>
+      </c>
+      <c r="M4" s="2">
+        <v>7</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2">
         <v>17</v>
@@ -3577,12 +4408,33 @@
         <v>14</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="2">
+        <v>2</v>
+      </c>
+      <c r="L5" s="2">
+        <v>17</v>
+      </c>
+      <c r="M5" s="2">
+        <v>7</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="P5" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B6" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2">
         <v>17</v>
@@ -3600,15 +4452,36 @@
         <v>80</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="K6" s="2">
+        <v>3</v>
+      </c>
+      <c r="L6" s="2">
+        <v>17</v>
+      </c>
+      <c r="M6" s="2">
+        <v>7</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B7" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2">
         <v>17</v>
@@ -3629,48 +4502,97 @@
         <v>15</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="2">
+        <v>4</v>
+      </c>
+      <c r="L7" s="2">
+        <v>17</v>
+      </c>
+      <c r="M7" s="2">
+        <v>7</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>80</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" ht="5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="2">
+      <c r="I8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="2">
+        <v>5</v>
+      </c>
+      <c r="L8" s="2">
+        <v>17</v>
+      </c>
+      <c r="M8" s="2">
+        <v>7</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="2:18" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="2">
         <v>6</v>
-      </c>
-      <c r="C9" s="2">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="2">
-        <v>5</v>
-      </c>
-      <c r="G9" s="2">
-        <v>80</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="2">
-        <v>7</v>
       </c>
       <c r="C10" s="2">
         <v>17</v>
@@ -3688,15 +4610,36 @@
         <v>80</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="K10" s="2">
+        <v>6</v>
+      </c>
+      <c r="L10" s="2">
+        <v>17</v>
+      </c>
+      <c r="M10" s="2">
+        <v>7</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B11" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2">
         <v>17</v>
@@ -3717,12 +4660,33 @@
         <v>14</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="K11" s="2">
+        <v>7</v>
+      </c>
+      <c r="L11" s="2">
+        <v>17</v>
+      </c>
+      <c r="M11" s="2">
+        <v>7</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P11" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B12" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2">
         <v>17</v>
@@ -3740,15 +4704,36 @@
         <v>80</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="K12" s="2">
+        <v>8</v>
+      </c>
+      <c r="L12" s="2">
+        <v>17</v>
+      </c>
+      <c r="M12" s="2">
+        <v>7</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B13" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="2">
         <v>17</v>
@@ -3769,48 +4754,90 @@
         <v>15</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="2">
+        <v>9</v>
+      </c>
+      <c r="L13" s="2">
+        <v>17</v>
+      </c>
+      <c r="M13" s="2">
+        <v>7</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" ht="5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="2">
+      <c r="P13" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="2">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="2">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2">
+        <v>80</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="2">
+        <v>10</v>
+      </c>
+      <c r="L14" s="2">
+        <v>17</v>
+      </c>
+      <c r="M14" s="2">
+        <v>7</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" ht="5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="2:18" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="2">
         <v>11</v>
-      </c>
-      <c r="C15" s="2">
-        <v>17</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="2">
-        <v>5</v>
-      </c>
-      <c r="G15" s="2">
-        <v>65</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="2">
-        <v>12</v>
       </c>
       <c r="C16" s="2">
         <v>17</v>
@@ -3828,7 +4855,7 @@
         <v>65</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>6</v>
@@ -3836,7 +4863,7 @@
     </row>
     <row r="17" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B17" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="2">
         <v>17</v>
@@ -3857,12 +4884,12 @@
         <v>14</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B18" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="2">
         <v>17</v>
@@ -3880,7 +4907,7 @@
         <v>65</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>14</v>
@@ -3888,7 +4915,7 @@
     </row>
     <row r="19" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B19" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="2">
         <v>17</v>
@@ -3909,18 +4936,34 @@
         <v>15</v>
       </c>
       <c r="I19" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B20" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="C20" s="2">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="2">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2">
+        <v>65</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="21" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B21" s="2"/>
@@ -3932,15 +4975,15 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+    <row r="22" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
@@ -4109,6 +5152,8 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B40" s="1"/>
@@ -4126,9 +5171,21 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="K2:Q2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4193,7 +5250,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>12</v>
@@ -4237,7 +5294,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" s="2">
         <v>30</v>
@@ -4281,7 +5338,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" s="2">
         <v>30</v>
@@ -4325,7 +5382,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" s="2">
         <v>30</v>
@@ -4356,10 +5413,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7651777-90D4-4482-AA6B-EAF6C9D60DDB}">
-  <dimension ref="B2:L24"/>
+  <dimension ref="B2:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4369,16 +5426,16 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
@@ -4386,16 +5443,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
@@ -4403,16 +5460,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
@@ -4420,16 +5477,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
@@ -4437,16 +5494,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
@@ -4454,33 +5511,33 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="F8" s="8" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.35">
@@ -4488,16 +5545,16 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.35">
@@ -4512,7 +5569,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="7">
         <v>289</v>
@@ -4526,58 +5583,68 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B12" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1041</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="8">
-        <v>1034</v>
+        <v>477</v>
       </c>
       <c r="F12" s="8">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B13" s="1">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1041</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1034</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B14" s="1">
         <v>23</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="8" t="s">
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="14">
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="14">
         <v>16.399999999999999</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8">
+      <c r="E15" s="8"/>
+      <c r="F15" s="8">
         <v>15</v>
       </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="J15" s="10"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
@@ -4626,6 +5693,11 @@
       <c r="J24" s="10"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="10:12" x14ac:dyDescent="0.35">
+      <c r="J25" s="10"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4637,8 +5709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B0CC37-1D47-4EB4-93FB-BA222741883C}">
   <dimension ref="B2:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4652,22 +5724,22 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.35">

--- a/Measurements/Data sheet.xlsx
+++ b/Measurements/Data sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msztr\OneDrive\Documents\Milán_munkái\Iskola\Fizika\IYPT_2024\6. Non-contact Resistance\Mérések\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msztr\OneDrive\Documents\GitHub\VeriGudGame\Measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B9D832-9FB6-4F8E-9B7B-A35309BCFA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D813DF1E-ED58-405D-89ED-E2D0D6531FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2877,7 +2877,7 @@
   <dimension ref="B2:V15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3577,7 +3577,7 @@
   <dimension ref="B2:V15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5710,7 +5710,7 @@
   <dimension ref="B2:G5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Measurements/Data sheet.xlsx
+++ b/Measurements/Data sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msztr\OneDrive\Documents\GitHub\VeriGudGame\Measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D813DF1E-ED58-405D-89ED-E2D0D6531FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4B1C72-F1D2-456D-8391-5F800720E3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cores" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="77">
   <si>
     <t>Meas. no</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t xml:space="preserve"> us</t>
+  </si>
+  <si>
+    <t>Measurement:</t>
   </si>
 </sst>
 </file>
@@ -309,7 +312,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,6 +343,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -362,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -409,6 +418,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1786,7 +1801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:V40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -3576,8 +3591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A0C6C6-90CD-4ECA-AB9B-EE05D433A0EE}">
   <dimension ref="B2:V15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3893,6 +3908,27 @@
       </c>
       <c r="J8" s="2" t="s">
         <v>33</v>
+      </c>
+      <c r="K8" s="2">
+        <v>40</v>
+      </c>
+      <c r="L8" s="2">
+        <v>68</v>
+      </c>
+      <c r="M8" s="2">
+        <v>70</v>
+      </c>
+      <c r="N8" s="2">
+        <v>73</v>
+      </c>
+      <c r="O8" s="2">
+        <v>76</v>
+      </c>
+      <c r="P8" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="2:22" ht="18.5" x14ac:dyDescent="0.35">
@@ -5413,10 +5449,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7651777-90D4-4482-AA6B-EAF6C9D60DDB}">
-  <dimension ref="B2:L25"/>
+  <dimension ref="B2:L26"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5588,7 +5624,9 @@
       <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="7">
+        <v>480</v>
+      </c>
       <c r="E12" s="8">
         <v>477</v>
       </c>
@@ -5614,92 +5652,109 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B14" s="1">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B15" s="1">
         <v>23</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B15" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="14">
         <v>16.399999999999999</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8">
+      <c r="E16" s="8"/>
+      <c r="F16" s="8">
         <v>15</v>
       </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="J16" s="10"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="10:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D17" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18">
+        <v>704</v>
+      </c>
       <c r="J17" s="10"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="10:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.35">
       <c r="J18" s="10"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="10:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:12" x14ac:dyDescent="0.35">
       <c r="J19" s="10"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="10:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:12" x14ac:dyDescent="0.35">
       <c r="J20" s="10"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="10:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.35">
       <c r="J21" s="10"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="10:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.35">
       <c r="J22" s="10"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
     </row>
-    <row r="23" spans="10:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.35">
       <c r="J23" s="10"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="10:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.35">
       <c r="J24" s="10"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
     </row>
-    <row r="25" spans="10:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.35">
       <c r="J25" s="10"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
     </row>
+    <row r="26" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="J26" s="10"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D17:E17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Measurements/Data sheet.xlsx
+++ b/Measurements/Data sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msztr\OneDrive\Documents\GitHub\VeriGudGame\Measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4B1C72-F1D2-456D-8391-5F800720E3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89864164-23F7-4AB0-B8F8-F23B05E5B432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cores" sheetId="1" r:id="rId1"/>
@@ -416,11 +416,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -730,9 +730,10 @@
       <c:valAx>
         <c:axId val="1852454799"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="4.0000000000000013E-4"/>
-          <c:min val="0"/>
+          <c:max val="1.0000000000000002E-3"/>
+          <c:min val="1.0000000000000005E-8"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1801,8 +1802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4306,25 +4307,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" s="2" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="K2" s="16" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="K2" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
       <c r="R2" s="15"/>
     </row>
     <row r="3" spans="2:18" ht="18.5" x14ac:dyDescent="0.35">
@@ -5452,7 +5453,7 @@
   <dimension ref="B2:L26"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5695,11 +5696,11 @@
       <c r="L16" s="8"/>
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18">
+      <c r="E17" s="18"/>
+      <c r="F17" s="16">
         <v>704</v>
       </c>
       <c r="J17" s="10"/>
@@ -5764,8 +5765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B0CC37-1D47-4EB4-93FB-BA222741883C}">
   <dimension ref="B2:G5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Measurements/Data sheet.xlsx
+++ b/Measurements/Data sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msztr\OneDrive\Documents\GitHub\VeriGudGame\Measurements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msztr\OneDrive\Documents\Milán_munkái\Iskola\Fizika\IYPT_2024\6. Non-contact Resistance\Mérések\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89864164-23F7-4AB0-B8F8-F23B05E5B432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033BD601-8B06-4A85-BC13-89B6BB9C29DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cores" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="Illustrations" sheetId="2" r:id="rId4"/>
     <sheet name="Voltage" sheetId="3" r:id="rId5"/>
     <sheet name="Parameters" sheetId="4" r:id="rId6"/>
-    <sheet name="Comparison" sheetId="5" r:id="rId7"/>
+    <sheet name="Comparison" sheetId="8" r:id="rId7"/>
+    <sheet name="ComparisonOld" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="102">
   <si>
     <t>Meas. no</t>
   </si>
@@ -271,13 +272,88 @@
   </si>
   <si>
     <t>Measurement:</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>meas no</t>
+  </si>
+  <si>
+    <t>Cu solid</t>
+  </si>
+  <si>
+    <t>Cu small</t>
+  </si>
+  <si>
+    <t>Cu big</t>
+  </si>
+  <si>
+    <t>Al solid</t>
+  </si>
+  <si>
+    <t>Al small</t>
+  </si>
+  <si>
+    <t>Al big</t>
+  </si>
+  <si>
+    <t>Fe solid</t>
+  </si>
+  <si>
+    <t>Fe small</t>
+  </si>
+  <si>
+    <t>Fe big</t>
+  </si>
+  <si>
+    <t>C2 Al</t>
+  </si>
+  <si>
+    <t>C2 Cu</t>
+  </si>
+  <si>
+    <t>C2 Fe</t>
+  </si>
+  <si>
+    <t>C3 Al</t>
+  </si>
+  <si>
+    <t>C3 Cu</t>
+  </si>
+  <si>
+    <t>C3 Fe</t>
+  </si>
+  <si>
+    <t>R20 Al</t>
+  </si>
+  <si>
+    <t>R20 Cu</t>
+  </si>
+  <si>
+    <t>R20 Fe</t>
+  </si>
+  <si>
+    <t>R21 Al</t>
+  </si>
+  <si>
+    <t>R21 Cu</t>
+  </si>
+  <si>
+    <t>R21 Fe</t>
+  </si>
+  <si>
+    <t>1 - L ; 2 - dR</t>
+  </si>
+  <si>
+    <t>Materal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +385,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -371,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -425,6 +509,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -443,6 +534,386 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Literature min</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Comparison!$E$4:$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Al</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Comparison!$F$4:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.653E-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.543E-8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.431E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9B07-4519-A25A-15C60D5BF1AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Literature max</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Comparison!$E$4:$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Al</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Comparison!$G$4:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.8200000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9999999999999997E-8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8539999999999998E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9B07-4519-A25A-15C60D5BF1AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1224664095"/>
+        <c:axId val="1224664927"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1224664095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1224664927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1224664927"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0000000000000002E-2"/>
+          <c:min val="1.0000000000000005E-9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1224664095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="hu-HU"/>
@@ -527,7 +998,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Comparison!$G$3:$G$5</c:f>
+                <c:f>ComparisonOld!$G$3:$G$5</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -545,7 +1016,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Comparison!$G$3:$G$5</c:f>
+                <c:f>ComparisonOld!$G$3:$G$5</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -577,7 +1048,7 @@
           </c:errBars>
           <c:xVal>
             <c:strRef>
-              <c:f>Comparison!$B$3:$B$5</c:f>
+              <c:f>ComparisonOld!$B$3:$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -594,7 +1065,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Comparison!$F$3:$F$5</c:f>
+              <c:f>ComparisonOld!$F$3:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -647,7 +1118,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Comparison!$B$3:$B$5</c:f>
+              <c:f>ComparisonOld!$B$3:$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -664,7 +1135,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Comparison!$C$3:$C$5</c:f>
+              <c:f>ComparisonOld!$C$3:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -730,10 +1201,9 @@
       <c:valAx>
         <c:axId val="1852454799"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="1.0000000000000002E-3"/>
-          <c:min val="1.0000000000000005E-8"/>
+          <c:max val="4.0000000000000013E-4"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -941,6 +1411,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1496,7 +2006,564 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>168275</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>473075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB4AB285-4EC5-401B-9BE2-3906C5A48E6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1803,7 +2870,7 @@
   <dimension ref="B2:V40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2893,7 +3960,7 @@
   <dimension ref="B2:V15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3593,7 +4660,7 @@
   <dimension ref="B2:V15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5452,8 +6519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7651777-90D4-4482-AA6B-EAF6C9D60DDB}">
   <dimension ref="B2:L26"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5653,28 +6720,29 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="B14" s="1">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B15" s="1">
-        <v>23</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
       <c r="J15" s="9"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
@@ -5762,11 +6830,452 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C1C6F1-2A04-48DB-99EC-86021C6DEDE0}">
+  <dimension ref="B2:I45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10.7265625" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.54296875" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="20">
+        <v>4.8851691433568899E-5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="11">
+        <v>2.653E-8</v>
+      </c>
+      <c r="G4" s="21">
+        <v>2.8200000000000001E-8</v>
+      </c>
+      <c r="H4" s="11">
+        <f>(F4+G4)/2</f>
+        <v>2.7365000000000001E-8</v>
+      </c>
+      <c r="I4" s="11">
+        <f>G4-H4</f>
+        <v>8.3500000000000053E-10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="20">
+        <v>1.7458395212662201E-6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1.543E-8</v>
+      </c>
+      <c r="G5" s="21">
+        <v>2.9999999999999997E-8</v>
+      </c>
+      <c r="H5" s="11">
+        <f>(F5+G5)/2</f>
+        <v>2.2714999999999999E-8</v>
+      </c>
+      <c r="I5" s="11">
+        <f>G5-H5</f>
+        <v>7.2849999999999987E-9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="20">
+        <v>4.6879875202010497E-5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1.431E-5</v>
+      </c>
+      <c r="G6" s="11">
+        <v>4.8539999999999998E-4</v>
+      </c>
+      <c r="H6" s="11">
+        <f t="shared" ref="H6" si="0">(F6+G6)/2</f>
+        <v>2.49855E-4</v>
+      </c>
+      <c r="I6" s="11">
+        <f t="shared" ref="I6" si="1">ABS(H6-F6)</f>
+        <v>2.3554500000000001E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="20">
+        <v>2.0681397320697098E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="20">
+        <v>4.7586628909109403E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="20">
+        <v>1.72839031038585E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="20">
+        <v>4.8159605682337297E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="20">
+        <v>1.9266817137952201E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="20">
+        <v>4.8101142072491601E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="20">
+        <v>2.1399361065669398E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="20">
+        <v>4.7427507178278201E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="20">
+        <v>2.1070768989353399E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="20">
+        <v>7.5289814205459405E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="20">
+        <v>3.8349257331765903E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="20">
+        <v>6.8357057523416595E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="20">
+        <v>3.8191367712596897E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="20">
+        <v>6.7564132296449599E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="20">
+        <v>3.6920744805650903E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="20">
+        <v>3.05909273709289E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="20">
+        <v>1.01641257234086E-6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="20">
+        <v>2.9484547827553501E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="20">
+        <v>7.5544801042918703E-7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="20">
+        <v>5.1732039693081001E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="20">
+        <v>2.6045138338484899E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="20">
+        <v>4.4485894526703998E-6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="20">
+        <v>7.7476495112233196E-8</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="20">
+        <v>4.3974240096947904E-6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="20">
+        <v>1.12276754146326E-7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="20">
+        <v>1.1538127590127899E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="20">
+        <v>4.0480595583892602E-6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="20">
+        <v>4.4341650020235901E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="20">
+        <v>1.0924684569018199E-6</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="20">
+        <v>4.18686897514224E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="20">
+        <v>1.01616700623747E-6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="20">
+        <v>8.44843715962051E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="20">
+        <v>3.1004271437507701E-5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="20">
+        <v>4.6161105522918502E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="20">
+        <v>1.97935780046936E-7</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="20">
+        <v>4.5503369148785597E-5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="20">
+        <v>1.0357977986451799E-7</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="20">
+        <v>9.5381234756757694E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="20">
+        <v>2.4383249906344801E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B0CC37-1D47-4EB4-93FB-BA222741883C}">
   <dimension ref="B2:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Measurements/Data sheet.xlsx
+++ b/Measurements/Data sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msztr\OneDrive\Documents\Milán_munkái\Iskola\Fizika\IYPT_2024\6. Non-contact Resistance\Mérések\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msztr\OneDrive\Documents\GitHub\VeriGudGame\Measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033BD601-8B06-4A85-BC13-89B6BB9C29DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5E7B9C-9A66-419C-AF7B-AB926CEE4819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="632" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cores" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="145">
   <si>
     <t>Meas. no</t>
   </si>
@@ -347,12 +347,145 @@
   </si>
   <si>
     <t>Materal</t>
+  </si>
+  <si>
+    <t>0.0000488516914335689</t>
+  </si>
+  <si>
+    <t>0.0000468798752020105</t>
+  </si>
+  <si>
+    <t>0.0000475866289091094</t>
+  </si>
+  <si>
+    <t>0.0000481596056823373</t>
+  </si>
+  <si>
+    <t>0.0000481011420724916</t>
+  </si>
+  <si>
+    <t>0.0000474275071782782</t>
+  </si>
+  <si>
+    <t>0.0000752898142054594</t>
+  </si>
+  <si>
+    <t>0.0000383492573317659</t>
+  </si>
+  <si>
+    <t>0.0000683570575234166</t>
+  </si>
+  <si>
+    <t>0.0000381913677125969</t>
+  </si>
+  <si>
+    <t>0.0000675641322964496</t>
+  </si>
+  <si>
+    <t>0.0000369207448056509</t>
+  </si>
+  <si>
+    <t>0.0000305909273709289</t>
+  </si>
+  <si>
+    <t>0.0000294845478275535</t>
+  </si>
+  <si>
+    <t>0.000051732039693081</t>
+  </si>
+  <si>
+    <t>0.0000260451383384849</t>
+  </si>
+  <si>
+    <t>0.0000044485894526704</t>
+  </si>
+  <si>
+    <t>0.0000115381275901279</t>
+  </si>
+  <si>
+    <t>0.0000443416500202359</t>
+  </si>
+  <si>
+    <t>0.0000418686897514224</t>
+  </si>
+  <si>
+    <t>0.0000844843715962051</t>
+  </si>
+  <si>
+    <t>0.0000310042714375077</t>
+  </si>
+  <si>
+    <t>0.0000461611055229185</t>
+  </si>
+  <si>
+    <t>0.0000455033691487856</t>
+  </si>
+  <si>
+    <t>0.0000953812347567577</t>
+  </si>
+  <si>
+    <t>0.0000243832499063448</t>
+  </si>
+  <si>
+    <t>0.000000103579779864518</t>
+  </si>
+  <si>
+    <t>0.000000197935780046936</t>
+  </si>
+  <si>
+    <t>0.00000101616700623747</t>
+  </si>
+  <si>
+    <t>0.00000109246845690182</t>
+  </si>
+  <si>
+    <t>0.00000404805955838926</t>
+  </si>
+  <si>
+    <t>0.000000112276754146326</t>
+  </si>
+  <si>
+    <t>0.00000439742400969479</t>
+  </si>
+  <si>
+    <t>0.0000000774764951122332</t>
+  </si>
+  <si>
+    <t>0.000000755448010429187</t>
+  </si>
+  <si>
+    <t>0.00000101641257234086</t>
+  </si>
+  <si>
+    <t>0.00000210707689893534</t>
+  </si>
+  <si>
+    <t>0.00000213993610656694</t>
+  </si>
+  <si>
+    <t>0.00000192668171379522</t>
+  </si>
+  <si>
+    <t>0.00000172839031038585</t>
+  </si>
+  <si>
+    <t>0.00000206813973206971</t>
+  </si>
+  <si>
+    <t>0.00000174583952126622</t>
+  </si>
+  <si>
+    <t>Wolfram values</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="182" formatCode="0.000000000000000000000"/>
+    <numFmt numFmtId="191" formatCode="0.000E+00"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -455,7 +588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -509,11 +642,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2870,7 +3008,7 @@
   <dimension ref="B2:V40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D4" sqref="D4:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6519,8 +6657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7651777-90D4-4482-AA6B-EAF6C9D60DDB}">
   <dimension ref="B2:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6831,16 +6969,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C1C6F1-2A04-48DB-99EC-86021C6DEDE0}">
-  <dimension ref="B2:I45"/>
+  <dimension ref="B2:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="10.7265625" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="13" style="19" customWidth="1"/>
+    <col min="4" max="4" width="31.6328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
@@ -6857,8 +6996,11 @@
       <c r="B3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="20" t="s">
         <v>77</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>144</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>101</v>
@@ -6880,8 +7022,11 @@
       <c r="B4" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="21">
         <v>4.8851691433568899E-5</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>102</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
@@ -6889,7 +7034,7 @@
       <c r="F4" s="11">
         <v>2.653E-8</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="11">
         <v>2.8200000000000001E-8</v>
       </c>
       <c r="H4" s="11">
@@ -6905,8 +7050,11 @@
       <c r="B5" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="21">
         <v>1.7458395212662201E-6</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>143</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
@@ -6914,7 +7062,7 @@
       <c r="F5" s="11">
         <v>1.543E-8</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="11">
         <v>2.9999999999999997E-8</v>
       </c>
       <c r="H5" s="11">
@@ -6930,8 +7078,11 @@
       <c r="B6" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="21">
         <v>4.6879875202010497E-5</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>103</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>19</v>
@@ -6955,312 +7106,765 @@
       <c r="B7" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="21">
         <v>2.0681397320697098E-6</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="21">
         <v>4.7586628909109403E-5</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="21">
         <v>1.72839031038585E-6</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="21">
         <v>4.8159605682337297E-5</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="21">
         <v>1.9266817137952201E-6</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="21">
         <v>4.8101142072491601E-5</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="21">
         <v>2.1399361065669398E-6</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="21">
         <v>4.7427507178278201E-5</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="21">
         <v>2.1070768989353399E-6</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="21">
         <v>7.5289814205459405E-5</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D16" s="22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="21">
         <v>3.8349257331765903E-5</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D17" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="21">
         <v>6.8357057523416595E-5</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D18" s="22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="21">
         <v>3.8191367712596897E-5</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D19" s="22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="21">
         <v>6.7564132296449599E-5</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D20" s="22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="21">
         <v>3.6920744805650903E-5</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D21" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="21">
         <v>3.05909273709289E-5</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D22" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="21">
         <v>1.01641257234086E-6</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D23" s="22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="21">
         <v>2.9484547827553501E-5</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D24" s="22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="21">
         <v>7.5544801042918703E-7</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D25" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="21">
         <v>5.1732039693081001E-5</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D26" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="21">
         <v>2.6045138338484899E-5</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D27" s="22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="21">
         <v>4.4485894526703998E-6</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D28" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="21">
         <v>7.7476495112233196E-8</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D29" s="22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="21">
         <v>4.3974240096947904E-6</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D30" s="22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="21">
         <v>1.12276754146326E-7</v>
       </c>
-    </row>
-    <row r="32" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D31" s="22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="21">
         <v>1.1538127590127899E-5</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D32" s="22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="21">
         <v>4.0480595583892602E-6</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D33" s="22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="21">
         <v>4.4341650020235901E-5</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D34" s="22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="21">
         <v>1.0924684569018199E-6</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D35" s="22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="21">
         <v>4.18686897514224E-5</v>
       </c>
-    </row>
-    <row r="37" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D36" s="22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="21">
         <v>1.01616700623747E-6</v>
       </c>
-    </row>
-    <row r="38" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D37" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="20">
+      <c r="C38" s="21">
         <v>8.44843715962051E-5</v>
       </c>
-    </row>
-    <row r="39" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D38" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="21">
         <v>3.1004271437507701E-5</v>
       </c>
-    </row>
-    <row r="40" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D39" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="21">
         <v>4.6161105522918502E-5</v>
       </c>
-    </row>
-    <row r="41" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D40" s="22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C41" s="21">
         <v>1.97935780046936E-7</v>
       </c>
-    </row>
-    <row r="42" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D41" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="20">
+      <c r="C42" s="21">
         <v>4.5503369148785597E-5</v>
       </c>
-    </row>
-    <row r="43" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D42" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="21">
         <v>1.0357977986451799E-7</v>
       </c>
-    </row>
-    <row r="44" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D43" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="20">
+      <c r="C44" s="21">
         <v>9.5381234756757694E-5</v>
       </c>
-    </row>
-    <row r="45" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D44" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="20">
+      <c r="C45" s="21">
         <v>2.4383249906344801E-5</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="21">
+        <v>1.94940236597658E-5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="21">
+        <v>1.7906766475934901E-6</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="21">
+        <v>1.94940236597658E-5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="21">
+        <v>2.1590011406586599E-6</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="21">
+        <v>1.94940236597658E-5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="21">
+        <v>1.7906766475934901E-6</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="21">
+        <v>1.9739057420114801E-5</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" s="21">
+        <v>1.93631182110444E-6</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="21">
+        <v>1.96569255253028E-5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" s="21">
+        <v>2.1649983660493801E-6</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" s="21">
+        <v>1.9739057420114801E-5</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" s="21">
+        <v>2.16800949034152E-6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" s="21">
+        <v>4.4098621418291401E-5</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="21">
+        <v>4.2165652778181797E-5</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="21">
+        <v>4.1778130343865203E-5</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" s="21">
+        <v>4.1412694692857102E-5</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B63" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63" s="21">
+        <v>4.0037603504630401E-5</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B64" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="21">
+        <v>4.0829417302816798E-5</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" s="21">
+        <v>1.8149921410534801E-5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B66" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="21">
+        <v>1.0307159568E-6</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="21">
+        <v>1.8149921410534801E-5</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B68" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" s="21">
+        <v>7.4203977055206495E-7</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B69" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69" s="21">
+        <v>4.2679687129719303E-5</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B70" t="s">
+        <v>90</v>
+      </c>
+      <c r="C70" s="21">
+        <v>2.6433056442858199E-5</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B71" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71" s="21">
+        <v>3.9926000342481997E-6</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B72" t="s">
+        <v>91</v>
+      </c>
+      <c r="C72" s="21">
+        <v>7.6540631606401205E-8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B73" t="s">
+        <v>92</v>
+      </c>
+      <c r="C73" s="21">
+        <v>3.8025089304391099E-6</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B74" t="s">
+        <v>92</v>
+      </c>
+      <c r="C74" s="21">
+        <v>1.12275725063691E-7</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B75" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" s="21">
+        <v>1.4160067943338899E-5</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B76" t="s">
+        <v>93</v>
+      </c>
+      <c r="C76" s="21">
+        <v>4.0579683558318597E-6</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B77" t="s">
+        <v>94</v>
+      </c>
+      <c r="C77" s="21">
+        <v>2.0326991269042701E-5</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B78" t="s">
+        <v>94</v>
+      </c>
+      <c r="C78" s="21">
+        <v>1.10928539325842E-6</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B79" t="s">
+        <v>95</v>
+      </c>
+      <c r="C79" s="21">
+        <v>1.9821647511646801E-5</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B80" t="s">
+        <v>95</v>
+      </c>
+      <c r="C80" s="21">
+        <v>1.0154315466838799E-6</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B81" t="s">
+        <v>96</v>
+      </c>
+      <c r="C81" s="21">
+        <v>4.5323514074005999E-5</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B82" t="s">
+        <v>96</v>
+      </c>
+      <c r="C82" s="21">
+        <v>3.1765513006293097E-5</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B83" t="s">
+        <v>97</v>
+      </c>
+      <c r="C83" s="21">
+        <v>2.0241583854625601E-5</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B84" t="s">
+        <v>97</v>
+      </c>
+      <c r="C84" s="21">
+        <v>2.2482725739079701E-7</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B85" t="s">
+        <v>98</v>
+      </c>
+      <c r="C85" s="21">
+        <v>1.9821647511646801E-5</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B86" t="s">
+        <v>98</v>
+      </c>
+      <c r="C86" s="21">
+        <v>9.6208839441515894E-8</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B87" t="s">
+        <v>99</v>
+      </c>
+      <c r="C87" s="21">
+        <v>4.6594193837754897E-5</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B88" t="s">
+        <v>99</v>
+      </c>
+      <c r="C88" s="21">
+        <v>6.8391961299505204E-6</v>
       </c>
     </row>
   </sheetData>

--- a/Measurements/Data sheet.xlsx
+++ b/Measurements/Data sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msztr\OneDrive\Documents\GitHub\VeriGudGame\Measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5E7B9C-9A66-419C-AF7B-AB926CEE4819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC1FD14-CA28-4896-A300-94DC084348A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="632" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="632" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cores" sheetId="1" r:id="rId1"/>
@@ -483,8 +483,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="182" formatCode="0.000000000000000000000"/>
-    <numFmt numFmtId="191" formatCode="0.000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.000000000000000000000"/>
+    <numFmt numFmtId="165" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -636,23 +636,23 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5512,25 +5512,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" s="2" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="K2" s="17" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="K2" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
       <c r="R2" s="15"/>
     </row>
     <row r="3" spans="2:18" ht="18.5" x14ac:dyDescent="0.35">
@@ -6657,8 +6657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7651777-90D4-4482-AA6B-EAF6C9D60DDB}">
   <dimension ref="B2:L26"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6902,10 +6902,10 @@
       <c r="L16" s="8"/>
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="18"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="16">
         <v>704</v>
       </c>
@@ -6971,14 +6971,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C1C6F1-2A04-48DB-99EC-86021C6DEDE0}">
   <dimension ref="B2:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+    <sheetView topLeftCell="A54" workbookViewId="0">
       <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="10.7265625" customWidth="1"/>
-    <col min="3" max="3" width="13" style="19" customWidth="1"/>
+    <col min="3" max="3" width="13" style="17" customWidth="1"/>
     <col min="4" max="4" width="31.6328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
@@ -6996,10 +6996,10 @@
       <c r="B3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="18" t="s">
         <v>144</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -7022,10 +7022,10 @@
       <c r="B4" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="19">
         <v>4.8851691433568899E-5</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="20" t="s">
         <v>102</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -7050,10 +7050,10 @@
       <c r="B5" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="19">
         <v>1.7458395212662201E-6</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="20" t="s">
         <v>143</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -7078,10 +7078,10 @@
       <c r="B6" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="19">
         <v>4.6879875202010497E-5</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="20" t="s">
         <v>103</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -7106,10 +7106,10 @@
       <c r="B7" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="19">
         <v>2.0681397320697098E-6</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="20" t="s">
         <v>142</v>
       </c>
     </row>
@@ -7117,10 +7117,10 @@
       <c r="B8" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="19">
         <v>4.7586628909109403E-5</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="20" t="s">
         <v>104</v>
       </c>
     </row>
@@ -7128,10 +7128,10 @@
       <c r="B9" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="19">
         <v>1.72839031038585E-6</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="20" t="s">
         <v>141</v>
       </c>
     </row>
@@ -7139,10 +7139,10 @@
       <c r="B10" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="19">
         <v>4.8159605682337297E-5</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="20" t="s">
         <v>105</v>
       </c>
     </row>
@@ -7150,10 +7150,10 @@
       <c r="B11" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="19">
         <v>1.9266817137952201E-6</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="20" t="s">
         <v>140</v>
       </c>
     </row>
@@ -7161,10 +7161,10 @@
       <c r="B12" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="19">
         <v>4.8101142072491601E-5</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="20" t="s">
         <v>106</v>
       </c>
     </row>
@@ -7172,10 +7172,10 @@
       <c r="B13" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="19">
         <v>2.1399361065669398E-6</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="20" t="s">
         <v>139</v>
       </c>
     </row>
@@ -7183,10 +7183,10 @@
       <c r="B14" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="19">
         <v>4.7427507178278201E-5</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="20" t="s">
         <v>107</v>
       </c>
     </row>
@@ -7194,10 +7194,10 @@
       <c r="B15" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="19">
         <v>2.1070768989353399E-6</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="20" t="s">
         <v>138</v>
       </c>
     </row>
@@ -7205,10 +7205,10 @@
       <c r="B16" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="19">
         <v>7.5289814205459405E-5</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="20" t="s">
         <v>108</v>
       </c>
     </row>
@@ -7216,10 +7216,10 @@
       <c r="B17" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="19">
         <v>3.8349257331765903E-5</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="20" t="s">
         <v>109</v>
       </c>
     </row>
@@ -7227,10 +7227,10 @@
       <c r="B18" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="19">
         <v>6.8357057523416595E-5</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="20" t="s">
         <v>110</v>
       </c>
     </row>
@@ -7238,10 +7238,10 @@
       <c r="B19" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="19">
         <v>3.8191367712596897E-5</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="20" t="s">
         <v>111</v>
       </c>
     </row>
@@ -7249,10 +7249,10 @@
       <c r="B20" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="19">
         <v>6.7564132296449599E-5</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="20" t="s">
         <v>112</v>
       </c>
     </row>
@@ -7260,10 +7260,10 @@
       <c r="B21" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="19">
         <v>3.6920744805650903E-5</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="20" t="s">
         <v>113</v>
       </c>
     </row>
@@ -7271,10 +7271,10 @@
       <c r="B22" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="19">
         <v>3.05909273709289E-5</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="20" t="s">
         <v>114</v>
       </c>
     </row>
@@ -7282,10 +7282,10 @@
       <c r="B23" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="19">
         <v>1.01641257234086E-6</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="20" t="s">
         <v>137</v>
       </c>
     </row>
@@ -7293,10 +7293,10 @@
       <c r="B24" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="19">
         <v>2.9484547827553501E-5</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="20" t="s">
         <v>115</v>
       </c>
     </row>
@@ -7304,10 +7304,10 @@
       <c r="B25" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="19">
         <v>7.5544801042918703E-7</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="20" t="s">
         <v>136</v>
       </c>
     </row>
@@ -7315,10 +7315,10 @@
       <c r="B26" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="19">
         <v>5.1732039693081001E-5</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="20" t="s">
         <v>116</v>
       </c>
     </row>
@@ -7326,10 +7326,10 @@
       <c r="B27" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="19">
         <v>2.6045138338484899E-5</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="20" t="s">
         <v>117</v>
       </c>
     </row>
@@ -7337,10 +7337,10 @@
       <c r="B28" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="19">
         <v>4.4485894526703998E-6</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="20" t="s">
         <v>118</v>
       </c>
     </row>
@@ -7348,10 +7348,10 @@
       <c r="B29" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="19">
         <v>7.7476495112233196E-8</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="20" t="s">
         <v>135</v>
       </c>
     </row>
@@ -7359,10 +7359,10 @@
       <c r="B30" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="19">
         <v>4.3974240096947904E-6</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="20" t="s">
         <v>134</v>
       </c>
     </row>
@@ -7370,10 +7370,10 @@
       <c r="B31" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="19">
         <v>1.12276754146326E-7</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="20" t="s">
         <v>133</v>
       </c>
     </row>
@@ -7381,10 +7381,10 @@
       <c r="B32" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="19">
         <v>1.1538127590127899E-5</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="20" t="s">
         <v>119</v>
       </c>
     </row>
@@ -7392,10 +7392,10 @@
       <c r="B33" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="19">
         <v>4.0480595583892602E-6</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="20" t="s">
         <v>132</v>
       </c>
     </row>
@@ -7403,10 +7403,10 @@
       <c r="B34" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="19">
         <v>4.4341650020235901E-5</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="20" t="s">
         <v>120</v>
       </c>
     </row>
@@ -7414,10 +7414,10 @@
       <c r="B35" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="19">
         <v>1.0924684569018199E-6</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="20" t="s">
         <v>131</v>
       </c>
     </row>
@@ -7425,10 +7425,10 @@
       <c r="B36" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="19">
         <v>4.18686897514224E-5</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="20" t="s">
         <v>121</v>
       </c>
     </row>
@@ -7436,10 +7436,10 @@
       <c r="B37" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="19">
         <v>1.01616700623747E-6</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="20" t="s">
         <v>130</v>
       </c>
     </row>
@@ -7447,10 +7447,10 @@
       <c r="B38" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="19">
         <v>8.44843715962051E-5</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="20" t="s">
         <v>122</v>
       </c>
     </row>
@@ -7458,10 +7458,10 @@
       <c r="B39" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="19">
         <v>3.1004271437507701E-5</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="20" t="s">
         <v>123</v>
       </c>
     </row>
@@ -7469,10 +7469,10 @@
       <c r="B40" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="19">
         <v>4.6161105522918502E-5</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="20" t="s">
         <v>124</v>
       </c>
     </row>
@@ -7480,10 +7480,10 @@
       <c r="B41" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="21">
+      <c r="C41" s="19">
         <v>1.97935780046936E-7</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="20" t="s">
         <v>129</v>
       </c>
     </row>
@@ -7491,10 +7491,10 @@
       <c r="B42" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="19">
         <v>4.5503369148785597E-5</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="20" t="s">
         <v>125</v>
       </c>
     </row>
@@ -7502,10 +7502,10 @@
       <c r="B43" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C43" s="19">
         <v>1.0357977986451799E-7</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="20" t="s">
         <v>128</v>
       </c>
     </row>
@@ -7513,10 +7513,10 @@
       <c r="B44" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C44" s="19">
         <v>9.5381234756757694E-5</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="20" t="s">
         <v>126</v>
       </c>
     </row>
@@ -7524,10 +7524,10 @@
       <c r="B45" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="19">
         <v>2.4383249906344801E-5</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="20" t="s">
         <v>127</v>
       </c>
     </row>
@@ -7535,7 +7535,7 @@
       <c r="B47" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="21">
+      <c r="C47" s="19">
         <v>1.94940236597658E-5</v>
       </c>
     </row>
@@ -7543,7 +7543,7 @@
       <c r="B48" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C48" s="19">
         <v>1.7906766475934901E-6</v>
       </c>
     </row>
@@ -7551,7 +7551,7 @@
       <c r="B49" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="21">
+      <c r="C49" s="19">
         <v>1.94940236597658E-5</v>
       </c>
     </row>
@@ -7559,7 +7559,7 @@
       <c r="B50" t="s">
         <v>80</v>
       </c>
-      <c r="C50" s="21">
+      <c r="C50" s="19">
         <v>2.1590011406586599E-6</v>
       </c>
     </row>
@@ -7567,7 +7567,7 @@
       <c r="B51" t="s">
         <v>81</v>
       </c>
-      <c r="C51" s="21">
+      <c r="C51" s="19">
         <v>1.94940236597658E-5</v>
       </c>
     </row>
@@ -7575,7 +7575,7 @@
       <c r="B52" t="s">
         <v>81</v>
       </c>
-      <c r="C52" s="21">
+      <c r="C52" s="19">
         <v>1.7906766475934901E-6</v>
       </c>
     </row>
@@ -7583,7 +7583,7 @@
       <c r="B53" t="s">
         <v>82</v>
       </c>
-      <c r="C53" s="21">
+      <c r="C53" s="19">
         <v>1.9739057420114801E-5</v>
       </c>
     </row>
@@ -7591,7 +7591,7 @@
       <c r="B54" t="s">
         <v>82</v>
       </c>
-      <c r="C54" s="21">
+      <c r="C54" s="19">
         <v>1.93631182110444E-6</v>
       </c>
     </row>
@@ -7599,7 +7599,7 @@
       <c r="B55" t="s">
         <v>83</v>
       </c>
-      <c r="C55" s="21">
+      <c r="C55" s="19">
         <v>1.96569255253028E-5</v>
       </c>
     </row>
@@ -7607,7 +7607,7 @@
       <c r="B56" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="21">
+      <c r="C56" s="19">
         <v>2.1649983660493801E-6</v>
       </c>
     </row>
@@ -7615,7 +7615,7 @@
       <c r="B57" t="s">
         <v>84</v>
       </c>
-      <c r="C57" s="21">
+      <c r="C57" s="19">
         <v>1.9739057420114801E-5</v>
       </c>
     </row>
@@ -7623,7 +7623,7 @@
       <c r="B58" t="s">
         <v>84</v>
       </c>
-      <c r="C58" s="21">
+      <c r="C58" s="19">
         <v>2.16800949034152E-6</v>
       </c>
     </row>
@@ -7631,7 +7631,7 @@
       <c r="B59" t="s">
         <v>85</v>
       </c>
-      <c r="C59" s="21">
+      <c r="C59" s="19">
         <v>4.4098621418291401E-5</v>
       </c>
     </row>
@@ -7639,7 +7639,7 @@
       <c r="B60" t="s">
         <v>85</v>
       </c>
-      <c r="C60" s="21">
+      <c r="C60" s="19">
         <v>4.2165652778181797E-5</v>
       </c>
     </row>
@@ -7647,7 +7647,7 @@
       <c r="B61" t="s">
         <v>86</v>
       </c>
-      <c r="C61" s="21">
+      <c r="C61" s="19">
         <v>4.1778130343865203E-5</v>
       </c>
     </row>
@@ -7655,7 +7655,7 @@
       <c r="B62" t="s">
         <v>86</v>
       </c>
-      <c r="C62" s="21">
+      <c r="C62" s="19">
         <v>4.1412694692857102E-5</v>
       </c>
     </row>
@@ -7663,7 +7663,7 @@
       <c r="B63" t="s">
         <v>87</v>
       </c>
-      <c r="C63" s="21">
+      <c r="C63" s="19">
         <v>4.0037603504630401E-5</v>
       </c>
     </row>
@@ -7671,7 +7671,7 @@
       <c r="B64" t="s">
         <v>87</v>
       </c>
-      <c r="C64" s="21">
+      <c r="C64" s="19">
         <v>4.0829417302816798E-5</v>
       </c>
     </row>
@@ -7679,7 +7679,7 @@
       <c r="B65" t="s">
         <v>88</v>
       </c>
-      <c r="C65" s="21">
+      <c r="C65" s="19">
         <v>1.8149921410534801E-5</v>
       </c>
     </row>
@@ -7687,7 +7687,7 @@
       <c r="B66" t="s">
         <v>88</v>
       </c>
-      <c r="C66" s="21">
+      <c r="C66" s="19">
         <v>1.0307159568E-6</v>
       </c>
     </row>
@@ -7695,7 +7695,7 @@
       <c r="B67" t="s">
         <v>89</v>
       </c>
-      <c r="C67" s="21">
+      <c r="C67" s="19">
         <v>1.8149921410534801E-5</v>
       </c>
     </row>
@@ -7703,7 +7703,7 @@
       <c r="B68" t="s">
         <v>89</v>
       </c>
-      <c r="C68" s="21">
+      <c r="C68" s="19">
         <v>7.4203977055206495E-7</v>
       </c>
     </row>
@@ -7711,7 +7711,7 @@
       <c r="B69" t="s">
         <v>90</v>
       </c>
-      <c r="C69" s="21">
+      <c r="C69" s="19">
         <v>4.2679687129719303E-5</v>
       </c>
     </row>
@@ -7719,7 +7719,7 @@
       <c r="B70" t="s">
         <v>90</v>
       </c>
-      <c r="C70" s="21">
+      <c r="C70" s="19">
         <v>2.6433056442858199E-5</v>
       </c>
     </row>
@@ -7727,7 +7727,7 @@
       <c r="B71" t="s">
         <v>91</v>
       </c>
-      <c r="C71" s="21">
+      <c r="C71" s="19">
         <v>3.9926000342481997E-6</v>
       </c>
     </row>
@@ -7735,7 +7735,7 @@
       <c r="B72" t="s">
         <v>91</v>
       </c>
-      <c r="C72" s="21">
+      <c r="C72" s="19">
         <v>7.6540631606401205E-8</v>
       </c>
     </row>
@@ -7743,7 +7743,7 @@
       <c r="B73" t="s">
         <v>92</v>
       </c>
-      <c r="C73" s="21">
+      <c r="C73" s="19">
         <v>3.8025089304391099E-6</v>
       </c>
     </row>
@@ -7751,7 +7751,7 @@
       <c r="B74" t="s">
         <v>92</v>
       </c>
-      <c r="C74" s="21">
+      <c r="C74" s="19">
         <v>1.12275725063691E-7</v>
       </c>
     </row>
@@ -7759,7 +7759,7 @@
       <c r="B75" t="s">
         <v>93</v>
       </c>
-      <c r="C75" s="21">
+      <c r="C75" s="19">
         <v>1.4160067943338899E-5</v>
       </c>
     </row>
@@ -7767,7 +7767,7 @@
       <c r="B76" t="s">
         <v>93</v>
       </c>
-      <c r="C76" s="21">
+      <c r="C76" s="19">
         <v>4.0579683558318597E-6</v>
       </c>
     </row>
@@ -7775,7 +7775,7 @@
       <c r="B77" t="s">
         <v>94</v>
       </c>
-      <c r="C77" s="21">
+      <c r="C77" s="19">
         <v>2.0326991269042701E-5</v>
       </c>
     </row>
@@ -7783,7 +7783,7 @@
       <c r="B78" t="s">
         <v>94</v>
       </c>
-      <c r="C78" s="21">
+      <c r="C78" s="19">
         <v>1.10928539325842E-6</v>
       </c>
     </row>
@@ -7791,7 +7791,7 @@
       <c r="B79" t="s">
         <v>95</v>
       </c>
-      <c r="C79" s="21">
+      <c r="C79" s="19">
         <v>1.9821647511646801E-5</v>
       </c>
     </row>
@@ -7799,7 +7799,7 @@
       <c r="B80" t="s">
         <v>95</v>
       </c>
-      <c r="C80" s="21">
+      <c r="C80" s="19">
         <v>1.0154315466838799E-6</v>
       </c>
     </row>
@@ -7807,7 +7807,7 @@
       <c r="B81" t="s">
         <v>96</v>
       </c>
-      <c r="C81" s="21">
+      <c r="C81" s="19">
         <v>4.5323514074005999E-5</v>
       </c>
     </row>
@@ -7815,7 +7815,7 @@
       <c r="B82" t="s">
         <v>96</v>
       </c>
-      <c r="C82" s="21">
+      <c r="C82" s="19">
         <v>3.1765513006293097E-5</v>
       </c>
     </row>
@@ -7823,7 +7823,7 @@
       <c r="B83" t="s">
         <v>97</v>
       </c>
-      <c r="C83" s="21">
+      <c r="C83" s="19">
         <v>2.0241583854625601E-5</v>
       </c>
     </row>
@@ -7831,7 +7831,7 @@
       <c r="B84" t="s">
         <v>97</v>
       </c>
-      <c r="C84" s="21">
+      <c r="C84" s="19">
         <v>2.2482725739079701E-7</v>
       </c>
     </row>
@@ -7839,7 +7839,7 @@
       <c r="B85" t="s">
         <v>98</v>
       </c>
-      <c r="C85" s="21">
+      <c r="C85" s="19">
         <v>1.9821647511646801E-5</v>
       </c>
     </row>
@@ -7847,7 +7847,7 @@
       <c r="B86" t="s">
         <v>98</v>
       </c>
-      <c r="C86" s="21">
+      <c r="C86" s="19">
         <v>9.6208839441515894E-8</v>
       </c>
     </row>
@@ -7855,7 +7855,7 @@
       <c r="B87" t="s">
         <v>99</v>
       </c>
-      <c r="C87" s="21">
+      <c r="C87" s="19">
         <v>4.6594193837754897E-5</v>
       </c>
     </row>
@@ -7863,7 +7863,7 @@
       <c r="B88" t="s">
         <v>99</v>
       </c>
-      <c r="C88" s="21">
+      <c r="C88" s="19">
         <v>6.8391961299505204E-6</v>
       </c>
     </row>
